--- a/classfiers/bloated/randomForest/nearmiss/bloated-randomForest-nearmiss-results.xlsx
+++ b/classfiers/bloated/randomForest/nearmiss/bloated-randomForest-nearmiss-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.962962962962963</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8106060606060606</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9312820512820513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8615384615384617</v>
+        <v>0.85</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8671322751322752</v>
+        <v>0.852535117056856</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9615384615384615</v>
+        <v>0.9621212121212122</v>
       </c>
     </row>
   </sheetData>
